--- a/biology/Médecine/Hassine_Bouhageb/Hassine_Bouhageb.xlsx
+++ b/biology/Médecine/Hassine_Bouhageb/Hassine_Bouhageb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hassine Bouhageb (حسين بوحاجب), né le 20 octobre 1872 et décédé le 13 mars 1946, est un médecin, éducateur et promoteur du sport tunisien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il doit sa vocation médicale au long séjour que fait son père, le réformateur Salem Bouhageb, en Europe et en particulier à Paris, Livourne et Florence. Il en rapporte l'idée, audacieuse pour l'époque, d'envoyer son fils faire ses études en France, au lycée Lakanal de Sceaux puis à la faculté de médecine de Bordeaux où il obtient son doctorat le 23 décembre 1901.
 Hassine Bouhageb inaugure, avec Ali Bach Hamba, Béchir Sfar et Abdeljelil Zaouche, le mouvement de renouveau et de modernisation de la Tunisie. Il fait ainsi partie de la nouvelle génération engagée de Tunisiens qui, après leurs études, veulent améliorer le sort de leurs congénères et poursuivre le mouvement réformiste institué par le général Kheireddine Pacha, Mohamed Bayram V et son père.
